--- a/planner-service/resources/data/trip.xlsx
+++ b/planner-service/resources/data/trip.xlsx
@@ -5,34 +5,36 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="989" firstSheet="0" activeTab="15"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="989" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="home" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="contact" sheetId="2" state="visible" r:id="rId3"/>
     <sheet name="site" sheetId="3" state="visible" r:id="rId4"/>
     <sheet name="activity" sheetId="4" state="visible" r:id="rId5"/>
-    <sheet name="stay" sheetId="5" state="visible" r:id="rId6"/>
-    <sheet name="stay_type" sheetId="6" state="visible" r:id="rId7"/>
-    <sheet name="stay_feature" sheetId="7" state="visible" r:id="rId8"/>
-    <sheet name="stay_rating_parameter" sheetId="8" state="visible" r:id="rId9"/>
-    <sheet name="travel" sheetId="9" state="visible" r:id="rId10"/>
-    <sheet name="travel_type" sheetId="10" state="visible" r:id="rId11"/>
-    <sheet name="vehicle_model" sheetId="11" state="visible" r:id="rId12"/>
-    <sheet name="vehicle_class" sheetId="12" state="visible" r:id="rId13"/>
-    <sheet name="event" sheetId="13" state="visible" r:id="rId14"/>
-    <sheet name="day" sheetId="14" state="visible" r:id="rId15"/>
-    <sheet name="itinerary" sheetId="15" state="visible" r:id="rId16"/>
-    <sheet name="trip" sheetId="16" state="visible" r:id="rId17"/>
-    <sheet name="trip_score_params" sheetId="17" state="visible" r:id="rId18"/>
-    <sheet name="trip_budget" sheetId="18" state="visible" r:id="rId19"/>
+    <sheet name="activity_type" sheetId="5" state="visible" r:id="rId6"/>
+    <sheet name="stay" sheetId="6" state="visible" r:id="rId7"/>
+    <sheet name="stay_room" sheetId="7" state="visible" r:id="rId8"/>
+    <sheet name="stay_type" sheetId="8" state="visible" r:id="rId9"/>
+    <sheet name="stay_feature" sheetId="9" state="visible" r:id="rId10"/>
+    <sheet name="stay_rating_parameter" sheetId="10" state="visible" r:id="rId11"/>
+    <sheet name="travel" sheetId="11" state="visible" r:id="rId12"/>
+    <sheet name="travel_type" sheetId="12" state="visible" r:id="rId13"/>
+    <sheet name="travel_feature" sheetId="13" state="visible" r:id="rId14"/>
+    <sheet name="vehicle_model" sheetId="14" state="visible" r:id="rId15"/>
+    <sheet name="vehicle_class" sheetId="15" state="visible" r:id="rId16"/>
+    <sheet name="day" sheetId="16" state="visible" r:id="rId17"/>
+    <sheet name="itinerary" sheetId="17" state="visible" r:id="rId18"/>
+    <sheet name="trip" sheetId="18" state="visible" r:id="rId19"/>
+    <sheet name="trip_score_params" sheetId="19" state="visible" r:id="rId20"/>
+    <sheet name="trip_budget" sheetId="20" state="visible" r:id="rId21"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="152">
   <si>
     <t>Goa amigo</t>
   </si>
@@ -76,10 +78,7 @@
     <t>location_longitude</t>
   </si>
   <si>
-    <t>contact_id</t>
-  </si>
-  <si>
-    <t>contact_designation</t>
+    <t>contacts</t>
   </si>
   <si>
     <t>type</t>
@@ -94,7 +93,22 @@
     <t>payment_methods</t>
   </si>
   <si>
-    <t>contacts</t>
+    <t>schedule</t>
+  </si>
+  <si>
+    <t>min_duration</t>
+  </si>
+  <si>
+    <t>Inclusions</t>
+  </si>
+  <si>
+    <t>Charges</t>
+  </si>
+  <si>
+    <t>Cancellation policy</t>
+  </si>
+  <si>
+    <t>parent_id</t>
   </si>
   <si>
     <t>no_of_sections</t>
@@ -115,61 +129,43 @@
     <t>agent_commission</t>
   </si>
   <si>
-    <t>feature_id</t>
-  </si>
-  <si>
-    <t>feature_value</t>
+    <t>features</t>
   </si>
   <si>
     <t>overall_rating</t>
   </si>
   <si>
-    <t>rating_parameter_id</t>
-  </si>
-  <si>
-    <t>parameter_rating</t>
-  </si>
-  <si>
-    <t>room_title</t>
-  </si>
-  <si>
-    <t>room_description</t>
-  </si>
-  <si>
-    <t>room_area</t>
-  </si>
-  <si>
-    <t>room_type</t>
-  </si>
-  <si>
-    <t>room_section_no</t>
-  </si>
-  <si>
-    <t>room_no_of_beds</t>
-  </si>
-  <si>
-    <t>room_occupancy</t>
-  </si>
-  <si>
-    <t>room_extra_bed_cost</t>
-  </si>
-  <si>
-    <t>room_breakfast_charges</t>
-  </si>
-  <si>
-    <t>room_lunch_charges</t>
-  </si>
-  <si>
-    <t>room_dinner_charges</t>
-  </si>
-  <si>
-    <t>room_feature_id</t>
-  </si>
-  <si>
-    <t>room_feature_value</t>
-  </si>
-  <si>
-    <t>parent_id</t>
+    <t>parameter_ratings</t>
+  </si>
+  <si>
+    <t>rooms</t>
+  </si>
+  <si>
+    <t>area</t>
+  </si>
+  <si>
+    <t>section_no</t>
+  </si>
+  <si>
+    <t>no_of_beds</t>
+  </si>
+  <si>
+    <t>occupancy</t>
+  </si>
+  <si>
+    <t>extra_bed_cost</t>
+  </si>
+  <si>
+    <t>breakfast_charges</t>
+  </si>
+  <si>
+    <t>lunch_charges</t>
+  </si>
+  <si>
+    <t>dinner_charges</t>
+  </si>
+  <si>
+    <t>feature</t>
   </si>
   <si>
     <t>Hotel</t>
@@ -202,12 +198,18 @@
     <t>Cottage</t>
   </si>
   <si>
+    <t>default</t>
+  </si>
+  <si>
     <t>Lawn Area</t>
   </si>
   <si>
     <t>Swimming Pool</t>
   </si>
   <si>
+    <t>N</t>
+  </si>
+  <si>
     <t>Pick-up &amp; Drop</t>
   </si>
   <si>
@@ -217,6 +219,9 @@
     <t>Parking</t>
   </si>
   <si>
+    <t>Y</t>
+  </si>
+  <si>
     <t>Elevator</t>
   </si>
   <si>
@@ -349,10 +354,7 @@
     <t>travel_type_id</t>
   </si>
   <si>
-    <t>vehicle_model_id</t>
-  </si>
-  <si>
-    <t>no_of_vehicles</t>
+    <t>vehicle_models</t>
   </si>
   <si>
     <t>taxi</t>
@@ -364,6 +366,9 @@
     <t>self</t>
   </si>
   <si>
+    <t>AC</t>
+  </si>
+  <si>
     <t>no_of_seats</t>
   </si>
   <si>
@@ -394,24 +399,21 @@
     <t>Hatchback</t>
   </si>
   <si>
+    <t>activity_id</t>
+  </si>
+  <si>
+    <t>start_time</t>
+  </si>
+  <si>
+    <t>end_time</t>
+  </si>
+  <si>
     <t>start_frequency</t>
   </si>
   <si>
     <t>start_at</t>
   </si>
   <si>
-    <t>activity</t>
-  </si>
-  <si>
-    <t>duration</t>
-  </si>
-  <si>
-    <t>event_id</t>
-  </si>
-  <si>
-    <t>event_at</t>
-  </si>
-  <si>
     <t>day_id</t>
   </si>
   <si>
@@ -436,6 +438,9 @@
     <t>trip_scores</t>
   </si>
   <si>
+    <t>Romance</t>
+  </si>
+  <si>
     <t>Thrill/spooky</t>
   </si>
   <si>
@@ -451,18 +456,12 @@
     <t>Luxury</t>
   </si>
   <si>
-    <t>Heritage</t>
-  </si>
-  <si>
     <t>Romantic</t>
   </si>
   <si>
     <t>Unwind</t>
   </si>
   <si>
-    <t>Gastronomy</t>
-  </si>
-  <si>
     <t>Offbeat</t>
   </si>
   <si>
@@ -491,15 +490,6 @@
   </si>
   <si>
     <t>Solitude</t>
-  </si>
-  <si>
-    <t>Nature</t>
-  </si>
-  <si>
-    <t>Hinterland</t>
-  </si>
-  <si>
-    <t>Beach</t>
   </si>
 </sst>
 </file>
@@ -587,7 +577,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -597,10 +587,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -726,20 +712,20 @@
       <c r="O17" s="2"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D18" s="3" t="s">
+      <c r="D18" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
-      <c r="K18" s="3"/>
-      <c r="L18" s="3"/>
-      <c r="M18" s="3"/>
-      <c r="N18" s="3"/>
-      <c r="O18" s="3"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="2"/>
+      <c r="L18" s="2"/>
+      <c r="M18" s="2"/>
+      <c r="N18" s="2"/>
+      <c r="O18" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -762,16 +748,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
+      <selection pane="topLeft" activeCell="C21" activeCellId="0" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="2.95918367346939"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="6.01020408163265"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="21.0204081632653"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="10.3214285714286"/>
     <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="11.5204081632653"/>
   </cols>
@@ -792,7 +778,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -800,7 +786,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -808,7 +794,63 @@
         <v>3</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>109</v>
+        <v>97</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>104</v>
       </c>
     </row>
   </sheetData>
@@ -823,6 +865,184 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:F1"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E12" activeCellId="0" sqref="E12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="2.95918367346939"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="4.47959183673469"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="10.3214285714286"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.8265306122449"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="13.1020408163265"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="7.12755102040816"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="11.5204081632653"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>43</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F11" activeCellId="0" sqref="F11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="2.95918367346939"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="6.01020408163265"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="10.3214285714286"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.93877551020408"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="11.5204081632653"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>109</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E6" activeCellId="0" sqref="E6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="2.95918367346939"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="4.47959183673469"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="10.3214285714286"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="6.98469387755102"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="11.5204081632653"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>110</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>57</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -854,10 +1074,10 @@
         <v>10</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
   </sheetData>
@@ -871,7 +1091,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -918,13 +1138,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="Q2" s="0" t="n">
         <v>1</v>
       </c>
       <c r="R2" s="0" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -932,13 +1152,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="Q3" s="0" t="n">
         <v>2</v>
       </c>
       <c r="R3" s="0" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -946,13 +1166,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="Q4" s="0" t="n">
         <v>3</v>
       </c>
       <c r="R4" s="0" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -960,13 +1180,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="Q5" s="0" t="n">
         <v>4</v>
       </c>
       <c r="R5" s="0" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
   </sheetData>
@@ -980,7 +1200,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -988,35 +1208,34 @@
   <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E11" activeCellId="0" sqref="E11"/>
+      <selection pane="topLeft" activeCell="E6" activeCellId="0" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="2.95918367346939"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="4.47959183673469"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="14.0765306122449"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="7.68367346938776"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="7.40816326530612"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="7.95408163265306"/>
-    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="10.3214285714286"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.79081632653061"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="9.76530612244898"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="9.62755102040816"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="11.5204081632653"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="E1" s="7" t="s">
+      <c r="D1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" s="0" t="s">
         <v>121</v>
       </c>
       <c r="F1" s="0" t="s">
@@ -1037,64 +1256,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:G1"/>
-  <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G5" activeCellId="0" sqref="G5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="2.95918367346939"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="4.47959183673469"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="10.3214285714286"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="14.0765306122449"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="7.68367346938776"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="8.37755102040816"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="8.51530612244898"/>
-    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="11.5204081632653"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="F1" s="0" t="s">
-        <v>124</v>
-      </c>
-      <c r="G1" s="0" t="s">
-        <v>125</v>
-      </c>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -1121,17 +1283,17 @@
       <c r="A1" s="0" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>121</v>
+      <c r="D1" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>125</v>
       </c>
       <c r="F1" s="0" t="s">
         <v>126</v>
@@ -1151,64 +1313,64 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:K1"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="J7" activeCellId="0" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="7" width="2.95918367346939"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="7" width="4.47959183673469"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="7" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="7" width="14.0765306122449"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="7" width="7.68367346938776"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="7" width="7.40816326530612"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="7" width="8.37755102040816"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="7" width="10.3214285714286"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="7" width="12.8265306122449"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="7" width="15.7397959183673"/>
-    <col collapsed="false" hidden="false" max="1025" min="11" style="7" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="6" width="2.95918367346939"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="6" width="4.47959183673469"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="6" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="6" width="14.0765306122449"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="6" width="7.68367346938776"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="6" width="7.40816326530612"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="6" width="8.37755102040816"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="6" width="10.3214285714286"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="6" width="12.8265306122449"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="6" width="15.7397959183673"/>
+    <col collapsed="false" hidden="false" max="1025" min="11" style="6" width="11.5204081632653"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="F1" s="7" t="s">
+      <c r="D1" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="F1" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="H1" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="I1" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="J1" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="K1" s="7" t="s">
+      <c r="K1" s="6" t="s">
         <v>133</v>
       </c>
     </row>
@@ -1223,15 +1385,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E9" activeCellId="0" sqref="E9"/>
+      <selection pane="topLeft" activeCell="E12" activeCellId="0" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -1253,179 +1415,98 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="n">
-        <v>1</v>
-      </c>
       <c r="B2" s="0" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" s="5" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="n">
-        <v>3</v>
-      </c>
       <c r="B4" s="0" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="n">
-        <v>4</v>
-      </c>
       <c r="B5" s="0" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="n">
-        <v>5</v>
-      </c>
       <c r="B6" s="0" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="B7" s="0" t="s">
+      <c r="B7" s="5" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="n">
-        <v>7</v>
-      </c>
       <c r="B8" s="0" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="n">
-        <v>8</v>
-      </c>
       <c r="B9" s="0" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="n">
-        <v>9</v>
-      </c>
       <c r="B10" s="0" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="n">
-        <v>10</v>
-      </c>
       <c r="B11" s="0" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="n">
-        <v>11</v>
-      </c>
       <c r="B12" s="0" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="n">
-        <v>12</v>
-      </c>
       <c r="B13" s="0" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="n">
-        <v>13</v>
-      </c>
       <c r="B14" s="0" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="n">
-        <v>14</v>
-      </c>
       <c r="B15" s="0" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="n">
-        <v>15</v>
-      </c>
       <c r="B16" s="0" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="n">
-        <v>16</v>
-      </c>
-      <c r="B17" s="0" t="s">
+      <c r="B17" s="5" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="n">
-        <v>17</v>
-      </c>
-      <c r="B18" s="0" t="s">
+      <c r="B18" s="5" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="n">
-        <v>18</v>
-      </c>
-      <c r="B19" s="0" t="s">
+      <c r="B19" s="5" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="n">
-        <v>19</v>
-      </c>
-      <c r="B20" s="0" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="B21" s="0" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="n">
-        <v>21</v>
-      </c>
-      <c r="B22" s="0" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="n">
-        <v>22</v>
-      </c>
-      <c r="B23" s="0" t="s">
-        <v>155</v>
+      <c r="B20" s="5" t="s">
+        <v>134</v>
       </c>
     </row>
   </sheetData>
@@ -1439,7 +1520,56 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:E1"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="2.95918367346939"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="6.01020408163265"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="9.90816326530612"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.8265306122449"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="11.8520408163265"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="11.5204081632653"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -1480,64 +1610,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:E1"/>
-  <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D12" activeCellId="0" sqref="D12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="2.95918367346939"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="6.01020408163265"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="9.90816326530612"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.8265306122449"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="11.8520408163265"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="11.5204081632653"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H11" activeCellId="0" sqref="H11"/>
+      <selection pane="topLeft" activeCell="H8" activeCellId="0" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -1548,9 +1629,8 @@
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="7.95408163265306"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="14.6326530612245"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="16.0204081632653"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="9.90816326530612"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="17.6836734693878"/>
-    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="8.51530612244898"/>
+    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="11.5204081632653"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1566,17 +1646,14 @@
       <c r="D1" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="4" t="s">
         <v>13</v>
       </c>
       <c r="G1" s="0" t="s">
         <v>14</v>
-      </c>
-      <c r="H1" s="0" t="s">
-        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -1595,10 +1672,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I1"/>
+  <dimension ref="A1:M1"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I8" activeCellId="0" sqref="I8"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J13" activeCellId="0" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -1609,9 +1686,13 @@
     <col collapsed="false" hidden="false" max="5" min="4" style="0" width="5.04081632653061"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="8.37755102040816"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="0" width="16.4336734693878"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="9.90816326530612"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="17.6836734693878"/>
-    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="8.51530612244898"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="8.79081632653061"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="11.8520408163265"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="9.76530612244898"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="16.7142857142857"/>
+    <col collapsed="false" hidden="false" max="1025" min="14" style="0" width="11.5204081632653"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1625,22 +1706,34 @@
         <v>10</v>
       </c>
       <c r="D1" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="F1" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="G1" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="H1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="H1" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="I1" s="0" t="s">
-        <v>15</v>
+      <c r="J1" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="K1" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1" s="0" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -1659,10 +1752,55 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AC1"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B24" activeCellId="0" sqref="B24"/>
+      <selection pane="topLeft" activeCell="F10" activeCellId="0" sqref="F10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="2.95918367346939"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="4.47959183673469"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="10.3214285714286"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.93877551020408"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="11.5204081632653"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:O1"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="M17" activeCellId="0" sqref="M17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -1678,24 +1816,22 @@
     <col collapsed="false" hidden="false" max="9" min="9" style="0" width="14.7704081632653"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="0" width="16.4336734693878"/>
     <col collapsed="false" hidden="false" max="11" min="11" style="0" width="16.2959183673469"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="9.48469387755102"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="12.4081632653061"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="17.4030612244898"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="15.0459183673469"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="9.48469387755102"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="15.3265306122449"/>
-    <col collapsed="false" hidden="false" max="20" min="19" style="0" width="10.0459183673469"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="7.12755102040816"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="16.0204081632653"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="6.57142857142857"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="15.3265306122449"/>
+    <col collapsed="false" hidden="false" max="18" min="17" style="0" width="10.0459183673469"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="15.3265306122449"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="15.8826530612245"/>
     <col collapsed="false" hidden="false" max="21" min="21" style="0" width="15.3265306122449"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="15.8826530612245"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="15.3265306122449"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="0" width="18.9336734693878"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="0" width="21.4387755102041"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="0" width="18.2397959183673"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="0" width="18.8010204081633"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="0" width="14.4897959183673"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="0" width="17.4030612244898"/>
-    <col collapsed="false" hidden="false" max="1025" min="30" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="18.9336734693878"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="21.4387755102041"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="0" width="18.2397959183673"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="0" width="18.8010204081633"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="0" width="14.4897959183673"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="0" width="17.4030612244898"/>
+    <col collapsed="false" hidden="false" max="1025" min="28" style="0" width="11.5204081632653"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1709,82 +1845,40 @@
         <v>10</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="M1" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="N1" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="O1" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="P1" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="Q1" s="0" t="s">
+      <c r="M1" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="R1" s="0" t="s">
+      <c r="N1" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="S1" s="0" t="s">
+      <c r="O1" s="0" t="s">
         <v>34</v>
-      </c>
-      <c r="T1" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="U1" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="V1" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="W1" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="X1" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="Y1" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="Z1" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="AA1" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="AB1" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="AC1" s="0" t="s">
-        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -1798,7 +1892,88 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:M1"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K10" activeCellId="0" sqref="K10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="2.95918367346939"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="4.47959183673469"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="10.3214285714286"/>
+    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="5.04081632653061"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="10.3214285714286"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="10.8826530612245"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="10.3214285714286"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="13.9336734693878"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="16.4336734693878"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="13.2397959183673"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="13.7959183673469"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="7.12755102040816"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="17.4030612244898"/>
+    <col collapsed="false" hidden="false" max="1025" min="15" style="0" width="11.5204081632653"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="H1" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="I1" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="J1" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="K1" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="L1" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="M1" s="0" t="s">
+        <v>43</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -1829,7 +2004,7 @@
         <v>10</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1837,7 +2012,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1845,7 +2020,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1853,7 +2028,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D4" s="0" t="n">
         <v>1</v>
@@ -1864,7 +2039,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D5" s="0" t="n">
         <v>1</v>
@@ -1875,7 +2050,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D6" s="0" t="n">
         <v>1</v>
@@ -1886,7 +2061,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D7" s="0" t="n">
         <v>1</v>
@@ -1897,7 +2072,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D8" s="0" t="n">
         <v>1</v>
@@ -1908,7 +2083,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D9" s="0" t="n">
         <v>2</v>
@@ -1919,7 +2094,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D10" s="0" t="n">
         <v>2</v>
@@ -1930,7 +2105,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D11" s="0" t="n">
         <v>2</v>
@@ -1941,544 +2116,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D12" s="0" t="n">
         <v>2</v>
-      </c>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:R34"/>
-  <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="P1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="P35" activeCellId="0" sqref="P35"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="2.95918367346939"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="28.3826530612245"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="10.3214285714286"/>
-    <col collapsed="false" hidden="false" max="15" min="4" style="0" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="3.51020408163265"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="28.3826530612245"/>
-    <col collapsed="false" hidden="false" max="1025" min="18" style="0" width="11.5204081632653"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C1" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="P1" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q1" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="R1" s="0" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="P2" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q2" s="0" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="P3" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q3" s="0" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="0" t="s">
-        <v>58</v>
-      </c>
-      <c r="P4" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q4" s="0" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="P5" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q5" s="0" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="P6" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q6" s="0" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="P7" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="Q7" s="0" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="0" t="s">
-        <v>62</v>
-      </c>
-      <c r="P8" s="0" t="n">
-        <v>7</v>
-      </c>
-      <c r="Q8" s="0" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="0" t="s">
-        <v>63</v>
-      </c>
-      <c r="P9" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="Q9" s="0" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="P10" s="0" t="n">
-        <v>9</v>
-      </c>
-      <c r="Q10" s="0" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="P11" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="Q11" s="0" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="0" t="s">
-        <v>66</v>
-      </c>
-      <c r="P12" s="0" t="n">
-        <v>11</v>
-      </c>
-      <c r="Q12" s="0" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="0" t="s">
-        <v>67</v>
-      </c>
-      <c r="P13" s="0" t="n">
-        <v>12</v>
-      </c>
-      <c r="Q13" s="0" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="0" t="s">
-        <v>68</v>
-      </c>
-      <c r="P14" s="0" t="n">
-        <v>13</v>
-      </c>
-      <c r="Q14" s="0" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="0" t="s">
-        <v>69</v>
-      </c>
-      <c r="P15" s="0" t="n">
-        <v>14</v>
-      </c>
-      <c r="Q15" s="0" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B16" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="P16" s="0" t="n">
-        <v>15</v>
-      </c>
-      <c r="Q16" s="0" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B17" s="0" t="s">
-        <v>71</v>
-      </c>
-      <c r="P17" s="0" t="n">
-        <v>16</v>
-      </c>
-      <c r="Q17" s="0" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B18" s="0" t="s">
-        <v>72</v>
-      </c>
-      <c r="P18" s="0" t="n">
-        <v>17</v>
-      </c>
-      <c r="Q18" s="0" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B19" s="0" t="s">
-        <v>73</v>
-      </c>
-      <c r="P19" s="0" t="n">
-        <v>18</v>
-      </c>
-      <c r="Q19" s="0" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B20" s="0" t="s">
-        <v>74</v>
-      </c>
-      <c r="P20" s="0" t="n">
-        <v>19</v>
-      </c>
-      <c r="Q20" s="0" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B21" s="0" t="s">
-        <v>75</v>
-      </c>
-      <c r="P21" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="Q21" s="0" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B22" s="0" t="s">
-        <v>76</v>
-      </c>
-      <c r="P22" s="0" t="n">
-        <v>21</v>
-      </c>
-      <c r="Q22" s="0" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B23" s="0" t="s">
-        <v>77</v>
-      </c>
-      <c r="P23" s="0" t="n">
-        <v>22</v>
-      </c>
-      <c r="Q23" s="0" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B24" s="0" t="s">
-        <v>78</v>
-      </c>
-      <c r="P24" s="0" t="n">
-        <v>23</v>
-      </c>
-      <c r="Q24" s="0" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B25" s="0" t="s">
-        <v>79</v>
-      </c>
-      <c r="P25" s="0" t="n">
-        <v>24</v>
-      </c>
-      <c r="Q25" s="0" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B26" s="0" t="s">
-        <v>80</v>
-      </c>
-      <c r="P26" s="0" t="n">
-        <v>25</v>
-      </c>
-      <c r="Q26" s="0" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B27" s="0" t="s">
-        <v>81</v>
-      </c>
-      <c r="P27" s="0" t="n">
-        <v>26</v>
-      </c>
-      <c r="Q27" s="0" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B28" s="0" t="s">
-        <v>82</v>
-      </c>
-      <c r="P28" s="0" t="n">
-        <v>27</v>
-      </c>
-      <c r="Q28" s="0" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B29" s="0" t="s">
-        <v>83</v>
-      </c>
-      <c r="P29" s="0" t="n">
-        <v>28</v>
-      </c>
-      <c r="Q29" s="0" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B30" s="0" t="s">
-        <v>85</v>
-      </c>
-      <c r="P30" s="0" t="n">
-        <v>29</v>
-      </c>
-      <c r="Q30" s="0" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B31" s="0" t="s">
-        <v>87</v>
-      </c>
-      <c r="P31" s="0" t="n">
-        <v>30</v>
-      </c>
-      <c r="Q31" s="0" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B32" s="0" t="s">
-        <v>89</v>
-      </c>
-      <c r="P32" s="0" t="n">
-        <v>31</v>
-      </c>
-      <c r="Q32" s="0" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B33" s="0" t="s">
-        <v>91</v>
-      </c>
-      <c r="P33" s="0" t="n">
-        <v>32</v>
-      </c>
-      <c r="Q33" s="0" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="P34" s="0" t="n">
-        <v>33</v>
-      </c>
-      <c r="Q34" s="0" t="s">
-        <v>93</v>
-      </c>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:C11"/>
-  <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C21" activeCellId="0" sqref="C21"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="2.95918367346939"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="21.0204081632653"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="10.3214285714286"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="11.5204081632653"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C1" s="0" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" s="0" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" s="0" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="B5" s="0" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="B6" s="0" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="B7" s="0" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="n">
-        <v>7</v>
-      </c>
-      <c r="B8" s="0" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="B9" s="0" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="n">
-        <v>9</v>
-      </c>
-      <c r="B10" s="0" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="B11" s="0" t="s">
-        <v>103</v>
       </c>
     </row>
   </sheetData>
@@ -2497,21 +2138,23 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:S34"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G7" activeCellId="0" sqref="G7"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="P10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="Q29" activeCellId="0" sqref="Q29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="2.95918367346939"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="4.47959183673469"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="28.3826530612245"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="10.3214285714286"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.8265306122449"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="14.9030612244898"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="13.6530612244898"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="15" min="4" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="3.51020408163265"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="28.3826530612245"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="6.98469387755102"/>
+    <col collapsed="false" hidden="false" max="1025" min="20" style="0" width="11.5204081632653"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2524,14 +2167,383 @@
       <c r="C1" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="0" t="s">
-        <v>104</v>
-      </c>
-      <c r="E1" s="0" t="s">
-        <v>105</v>
-      </c>
-      <c r="F1" s="0" t="s">
-        <v>106</v>
+      <c r="P1" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q1" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="R1" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="S1" s="0" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="P2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="0" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B3" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="P3" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q3" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="S3" s="0" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B4" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="P4" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q4" s="0" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B5" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="P5" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q5" s="0" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B6" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="P6" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q6" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="S6" s="0" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B7" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="P7" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="Q7" s="0" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B8" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="P8" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="Q8" s="0" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B9" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="P9" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="Q9" s="0" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B10" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="P10" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="Q10" s="0" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B11" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="P11" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q11" s="0" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B12" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="P12" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="Q12" s="0" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B13" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="P13" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="Q13" s="0" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B14" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="P14" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="Q14" s="0" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B15" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="P15" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="Q15" s="0" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B16" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="P16" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="Q16" s="0" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B17" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="P17" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="Q17" s="0" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B18" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="P18" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="Q18" s="0" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B19" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="P19" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="Q19" s="0" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B20" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="P20" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="Q20" s="0" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B21" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="P21" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="Q21" s="0" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B22" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="P22" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="Q22" s="0" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B23" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="P23" s="0" t="n">
+        <v>22</v>
+      </c>
+      <c r="Q23" s="0" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B24" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="P24" s="0" t="n">
+        <v>23</v>
+      </c>
+      <c r="Q24" s="0" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B25" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="P25" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="Q25" s="0" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B26" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="P26" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="Q26" s="0" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B27" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="P27" s="0" t="n">
+        <v>26</v>
+      </c>
+      <c r="Q27" s="0" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B28" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="P28" s="0" t="n">
+        <v>27</v>
+      </c>
+      <c r="Q28" s="0" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B29" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="P29" s="0" t="n">
+        <v>28</v>
+      </c>
+      <c r="Q29" s="0" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B30" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="P30" s="0" t="n">
+        <v>29</v>
+      </c>
+      <c r="Q30" s="0" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B31" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="P31" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="Q31" s="0" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B32" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="P32" s="0" t="n">
+        <v>31</v>
+      </c>
+      <c r="Q32" s="0" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B33" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="P33" s="0" t="n">
+        <v>32</v>
+      </c>
+      <c r="Q33" s="0" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P34" s="0" t="n">
+        <v>33</v>
+      </c>
+      <c r="Q34" s="0" t="s">
+        <v>94</v>
       </c>
     </row>
   </sheetData>
